--- a/GDPmap.xlsx
+++ b/GDPmap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\Data Science\Data Science project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42134AD3-8745-43A7-8A18-5BF5E119DF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3484D19A-175D-4497-A57A-8F7D08CAF261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="996" yWindow="-108" windowWidth="22152" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>Country</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
@@ -81,6 +78,9 @@
   </si>
   <si>
     <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>NAME</t>
   </si>
 </sst>
 </file>
@@ -400,23 +400,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>0.28999999999999998</v>
@@ -424,7 +422,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>6.77</v>
@@ -432,7 +430,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>6.35</v>
@@ -440,7 +438,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>2.0299999999999998</v>
@@ -448,7 +446,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>-1.46</v>
@@ -456,7 +454,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>9.99</v>
@@ -464,7 +462,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>6.69</v>
@@ -472,7 +470,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>4.76</v>
@@ -480,7 +478,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>7.4</v>
@@ -488,7 +486,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>6.83</v>
@@ -496,7 +494,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>7.94</v>
@@ -504,7 +502,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>3.21</v>
@@ -512,7 +510,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>3.38</v>
